--- a/src/test/resources/template-horizontal.xlsx
+++ b/src/test/resources/template-horizontal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bingoobjca/github/xlsx-java/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6017B2F-30D8-9A4A-8CDA-DD694B5A7BB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6B5363-D841-574B-8E31-E7DBA3123300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27440" yWindow="860" windowWidth="27440" windowHeight="16440" xr2:uid="{E377AC1E-7096-554C-B25F-31543651D3ED}"/>
+    <workbookView xWindow="-30640" yWindow="3300" windowWidth="15060" windowHeight="10440" xr2:uid="{E377AC1E-7096-554C-B25F-31543651D3ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -447,7 +447,7 @@
   <dimension ref="B3:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
